--- a/Phân chia công việc.xlsx
+++ b/Phân chia công việc.xlsx
@@ -19,18 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tasks Name</t>
   </si>
   <si>
-    <t>% 
-Build</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -52,31 +45,25 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Redux</t>
-  </si>
-  <si>
     <t>Đào Công Cường</t>
   </si>
   <si>
-    <t>50% + 50%</t>
-  </si>
-  <si>
-    <t>Đào Công Cường, Dương Thị Băng Trinh</t>
-  </si>
-  <si>
-    <t>Cart</t>
-  </si>
-  <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Dương Thị Băng Trinh</t>
+    <t>Login facebook, google..</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Minh</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Course Details</t>
   </si>
 </sst>
 </file>
@@ -202,9 +189,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -215,10 +199,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -448,161 +435,165 @@
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="53.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
